--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWater\Docs\Очистка - описание\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWaterUSB\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E9D697-5077-475C-8C71-D587C01B9EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE430D63-0BFB-4535-AC0C-FDA4C7BE1689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>не сработан H</t>
   </si>
   <si>
-    <t>шаг 2 чистой бочки заблокирован</t>
-  </si>
-  <si>
     <t>6 шаг бочки отстойника завершен</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>дать разрешение бочке отстойника из первой очереди</t>
+  </si>
+  <si>
+    <t>шаг 3 чистой бочки заблокирован</t>
   </si>
 </sst>
 </file>
@@ -673,6 +673,117 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -696,117 +807,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1091,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,77 +1110,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="53" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1195,27 +1195,27 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="50">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1230,27 +1230,27 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="50">
+      <c r="A5" s="42">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1265,27 +1265,27 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="70" t="s">
+      <c r="I5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="54" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="50">
+      <c r="A6" s="42">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1300,81 +1300,81 @@
       <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="68" t="s">
+      <c r="H6" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="63" t="s">
+      <c r="K6" s="54" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52">
+      <c r="A7" s="44">
         <v>6</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="66"/>
+    </row>
+    <row r="12" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="55"/>
-    </row>
-    <row r="12" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="75"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1393,7 +1393,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,130 +1409,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="79" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+    <row r="2" spans="1:8" s="64" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="78" t="s">
-        <v>66</v>
+      <c r="H2" s="63" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="50">
+      <c r="A3" s="42">
         <v>2</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52">
+      <c r="A4" s="44">
         <v>3</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="46" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="55"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="76" t="s">
+      <c r="A9" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1564,19 +1564,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="80" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1588,13 +1588,13 @@
         <v>3000</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,13 +1605,13 @@
         <v>300</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1622,11 +1622,11 @@
         <v>200</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="37"/>
+        <v>56</v>
+      </c>
+      <c r="D4" s="74"/>
       <c r="E4" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,13 +1637,13 @@
         <v>3000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1654,13 +1654,13 @@
         <v>1000</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>300</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1688,11 +1688,11 @@
         <v>200</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="39"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="76"/>
       <c r="E8" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,13 +1703,13 @@
         <v>3000</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1720,13 +1720,13 @@
         <v>1000</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="19">
         <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1737,13 +1737,13 @@
         <v>300</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1754,11 +1754,11 @@
         <v>200</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="41"/>
+        <v>56</v>
+      </c>
+      <c r="D12" s="78"/>
       <c r="E12" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,13 +1769,13 @@
         <v>3000</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1786,13 +1786,13 @@
         <v>1000</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="27">
         <v>3</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1803,13 +1803,13 @@
         <v>300</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,11 +1820,11 @@
         <v>200</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="43"/>
+        <v>56</v>
+      </c>
+      <c r="D16" s="80"/>
       <c r="E16" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1835,13 +1835,13 @@
         <v>3000</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="28">
         <v>1</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Очистка - описание/Последовательности.xlsx
+++ b/Docs/Очистка - описание/Последовательности.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProjects\GardenCleanWaterUSB\Docs\Очистка - описание\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE430D63-0BFB-4535-AC0C-FDA4C7BE1689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D02679-EA5E-41D9-BA26-1A9F0771FB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,8 +268,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -568,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -807,6 +830,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +1126,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,7 +1172,7 @@
       <c r="I1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="81" t="s">
         <v>20</v>
       </c>
       <c r="K1" s="39" t="s">
@@ -1172,7 +1207,7 @@
       <c r="I2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="82" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="53" t="s">
@@ -1207,7 +1242,7 @@
       <c r="I3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="83" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="54" t="s">
@@ -1242,7 +1277,7 @@
       <c r="I4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="83" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="54" t="s">
@@ -1277,7 +1312,7 @@
       <c r="I5" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="83" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="54" t="s">
@@ -1312,7 +1347,7 @@
       <c r="I6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="83" t="s">
         <v>28</v>
       </c>
       <c r="K6" s="54" t="s">
@@ -1347,7 +1382,7 @@
       <c r="I7" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="60" t="s">
+      <c r="J7" s="84" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="57" t="s">
@@ -1393,7 +1428,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
